--- a/database_data/company.xlsx
+++ b/database_data/company.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Placement_mngmt_syst\database_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Placement_Management_System\database_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211A656-7A2B-4FE4-A7A8-FE626E49727B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A013C-3D5B-43D1-8012-7F7F372CCE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t xml:space="preserve">Biztime IT solutions pvt. ltd. </t>
   </si>
@@ -207,6 +208,30 @@
   </si>
   <si>
     <t>researcher</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>hardware engineer</t>
+  </si>
+  <si>
+    <t>KPMG</t>
+  </si>
+  <si>
+    <t>finance advisor</t>
+  </si>
+  <si>
+    <t>cognizant</t>
+  </si>
+  <si>
+    <t>project lead</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>market engineer</t>
   </si>
 </sst>
 </file>
@@ -252,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -275,11 +300,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,6 +334,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:E53"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1546,8 +1585,72 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="1"/>
-      <c r="C54" s="7"/>
+      <c r="A54">
+        <v>1053</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="7">
+        <v>43184</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1054</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="7">
+        <v>43215</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1055</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="7">
+        <v>43245</v>
+      </c>
+      <c r="D56">
+        <v>5.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1056</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="7">
+        <v>43276</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B2:B102">

--- a/database_data/company.xlsx
+++ b/database_data/company.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Placement_Management_System\database_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Placement_mngmt_syst\database_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A013C-3D5B-43D1-8012-7F7F372CCE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211A656-7A2B-4FE4-A7A8-FE626E49727B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t xml:space="preserve">Biztime IT solutions pvt. ltd. </t>
   </si>
@@ -208,30 +207,6 @@
   </si>
   <si>
     <t>researcher</t>
-  </si>
-  <si>
-    <t>Accenture</t>
-  </si>
-  <si>
-    <t>hardware engineer</t>
-  </si>
-  <si>
-    <t>KPMG</t>
-  </si>
-  <si>
-    <t>finance advisor</t>
-  </si>
-  <si>
-    <t>cognizant</t>
-  </si>
-  <si>
-    <t>project lead</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>market engineer</t>
   </si>
 </sst>
 </file>
@@ -277,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -300,22 +275,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -334,9 +298,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,72 +1546,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>1053</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="7">
-        <v>43184</v>
-      </c>
-      <c r="D54">
-        <v>6</v>
-      </c>
-      <c r="E54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>1054</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="7">
-        <v>43215</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>1055</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="7">
-        <v>43245</v>
-      </c>
-      <c r="D56">
-        <v>5.5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>1056</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="7">
-        <v>43276</v>
-      </c>
-      <c r="D57">
-        <v>7</v>
-      </c>
-      <c r="E57" t="s">
-        <v>66</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="7"/>
     </row>
   </sheetData>
   <sortState ref="B2:B102">
